--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_6.xlsx
@@ -482,214 +482,214 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7843599827273733</v>
+        <v>0.422046706849045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7489584411008856</v>
+        <v>0.1635538922638263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6561746807522165</v>
+        <v>-0.2097555963164301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6745606730784064</v>
+        <v>0.1378663516932161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2386499643325806</v>
+        <v>0.6396239995956421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1304077208042145</v>
+        <v>0.7474936246871948</v>
       </c>
       <c r="H2" t="n">
-        <v>0.81843101978302</v>
+        <v>0.6685941219329834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4541833400726318</v>
+        <v>0.7103652954101562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_18</t>
+          <t>model_3_6_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7843872553040681</v>
+        <v>0.4221359513647231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7442335166086002</v>
+        <v>0.1640866229152774</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6580609318974981</v>
+        <v>-0.2093874066791481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6751435433219988</v>
+        <v>0.1382905114328093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2386197745800018</v>
+        <v>0.639525294303894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1328621506690979</v>
+        <v>0.7470175623893738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8139410018920898</v>
+        <v>0.6683906316757202</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4533698856830597</v>
+        <v>0.7100158929824829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_19</t>
+          <t>model_3_6_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7845596553966701</v>
+        <v>0.4225156818447938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7504965997134044</v>
+        <v>0.1662522767638308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6568502676253275</v>
+        <v>-0.2078421606982517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6754060452119985</v>
+        <v>0.1400202496746791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2384289652109146</v>
+        <v>0.639104962348938</v>
       </c>
       <c r="G4" t="n">
-        <v>0.129608690738678</v>
+        <v>0.7450821995735168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.81682288646698</v>
+        <v>0.6675366163253784</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4530035555362701</v>
+        <v>0.7085906267166138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_20</t>
+          <t>model_3_6_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7846545375846714</v>
+        <v>0.4227828186365898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7490551004832404</v>
+        <v>0.1682271962213757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6572668016746475</v>
+        <v>-0.2076232231181669</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6754562427172417</v>
+        <v>0.1412230966446606</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2383239716291428</v>
+        <v>0.6388093233108521</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1303575038909912</v>
+        <v>0.7433173656463623</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8158313632011414</v>
+        <v>0.6674156188964844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4529334902763367</v>
+        <v>0.7075994610786438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_21</t>
+          <t>model_3_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7847601260537636</v>
+        <v>0.4228176335876341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7499682893610797</v>
+        <v>0.1691297988083424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6573473100589814</v>
+        <v>-0.2083506012861234</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6757008820732326</v>
+        <v>0.1415129794264643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2382071167230606</v>
+        <v>0.6387708783149719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1298831403255463</v>
+        <v>0.7425106763839722</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8156397342681885</v>
+        <v>0.6678175926208496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4525920748710632</v>
+        <v>0.7073606252670288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_23</t>
+          <t>model_3_6_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7848621676562466</v>
+        <v>0.4230415068136891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7492693921716517</v>
+        <v>0.1696466619763916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6577877973983963</v>
+        <v>-0.2063297103796415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6759166972060937</v>
+        <v>0.1424460963894006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2380941957235336</v>
+        <v>0.6385231018066406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1302461922168732</v>
+        <v>0.7420488595962524</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8145911693572998</v>
+        <v>0.6667007207870483</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4522908627986908</v>
+        <v>0.706591784954071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_22</t>
+          <t>model_3_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7848683831450671</v>
+        <v>0.4271133273920696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7506626510540226</v>
+        <v>0.1674020637554847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6574782286411169</v>
+        <v>-0.1446426572292241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6759427374889782</v>
+        <v>0.1606305617464169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2380873113870621</v>
+        <v>0.6340166926383972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.129522442817688</v>
+        <v>0.7440546751022339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8153281211853027</v>
+        <v>0.6326082348823547</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4522545337677002</v>
+        <v>0.6916084885597229</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7868776603801518</v>
+        <v>0.4274805211223944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501784690999109</v>
+        <v>0.1689349453649821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6650359826376822</v>
+        <v>-0.1421389512445563</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6819135273431323</v>
+        <v>0.1622994193338129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2358636409044266</v>
+        <v>0.6336103081703186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1297739446163177</v>
+        <v>0.7426849007606506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7973378896713257</v>
+        <v>0.631224513053894</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4439217150211334</v>
+        <v>0.6902334690093994</v>
       </c>
     </row>
     <row r="10">
@@ -730,152 +730,152 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7881070893285358</v>
+        <v>0.4281249376881703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7448832258575682</v>
+        <v>0.1715780037277636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6707137718227789</v>
+        <v>-0.1378158972121635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6854273761549361</v>
+        <v>0.1651830514894939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2345030307769775</v>
+        <v>0.6328971982002258</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1325246691703796</v>
+        <v>0.7403228878974915</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7838226556777954</v>
+        <v>0.6288352608680725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4390178024768829</v>
+        <v>0.6878573298454285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_14</t>
+          <t>model_3_6_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7885822370088251</v>
+        <v>0.4283166729595377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7435336843515113</v>
+        <v>0.1621359493033299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6730763777402092</v>
+        <v>-0.1173115827892444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6870576770124457</v>
+        <v>0.1662321233422024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2339771836996078</v>
+        <v>0.6326850056648254</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1332256942987442</v>
+        <v>0.7487608194351196</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7781987190246582</v>
+        <v>0.6175032258033752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4367425143718719</v>
+        <v>0.6869930028915405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_15</t>
+          <t>model_3_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7887908613650862</v>
+        <v>0.4283738870494492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7443746456893623</v>
+        <v>0.1637943374490182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6734904440692322</v>
+        <v>-0.1196467787604738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6875557436558859</v>
+        <v>0.1664467540520836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.233746275305748</v>
+        <v>0.6326216459274292</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1327888369560242</v>
+        <v>0.7472787499427795</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7772131562232971</v>
+        <v>0.618793785572052</v>
       </c>
       <c r="I12" t="n">
-        <v>0.436047375202179</v>
+        <v>0.6868160963058472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_12</t>
+          <t>model_3_6_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7897846179682357</v>
+        <v>0.4283900938383601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7513398914992307</v>
+        <v>0.164253155625449</v>
       </c>
       <c r="D13" t="n">
-        <v>0.675871772099023</v>
+        <v>-0.1203877604601391</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6908396583578635</v>
+        <v>0.1664759279294605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2326464802026749</v>
+        <v>0.632603645324707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1291706413030624</v>
+        <v>0.7468687891960144</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7715446949005127</v>
+        <v>0.6192033290863037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4314644336700439</v>
+        <v>0.6867920756340027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_13</t>
+          <t>model_3_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7903157083575475</v>
+        <v>0.4306801642224786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7511634417266388</v>
+        <v>0.166503408615174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6769941289284738</v>
+        <v>-0.09128867704021415</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6917057639955069</v>
+        <v>0.1769556786428186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2320587337017059</v>
+        <v>0.6300693154335022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1292622834444046</v>
+        <v>0.7448577880859375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7688730955123901</v>
+        <v>0.6031211614608765</v>
       </c>
       <c r="I14" t="n">
-        <v>0.430255651473999</v>
+        <v>0.6781572699546814</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7918006203179484</v>
+        <v>0.4326176379169558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.753463995525202</v>
+        <v>0.1651193255928873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6825576865497172</v>
+        <v>-0.06016240340841073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.696624697228486</v>
+        <v>0.185984153333383</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2304153740406036</v>
+        <v>0.6279250383377075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1280672252178192</v>
+        <v>0.7460947036743164</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7556297779083252</v>
+        <v>0.585918664932251</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4233907759189606</v>
+        <v>0.6707180738449097</v>
       </c>
     </row>
     <row r="16">
@@ -916,90 +916,90 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7967057058388967</v>
+        <v>0.4332713766358854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7598572017163908</v>
+        <v>0.1517815274669997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6979692385222562</v>
+        <v>-0.02304291698233363</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7102545424040924</v>
+        <v>0.190043419932598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2249868661165237</v>
+        <v>0.6272015571594238</v>
       </c>
       <c r="G16" t="n">
-        <v>0.124746173620224</v>
+        <v>0.7580140233039856</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7189445495605469</v>
+        <v>0.5654038190841675</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4043689668178558</v>
+        <v>0.6673734188079834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_9</t>
+          <t>model_3_6_3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7987390608820959</v>
+        <v>0.4342288060946472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7644372049332766</v>
+        <v>0.1378714347270967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7059067962549315</v>
+        <v>0.07639048276154536</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7175281173336689</v>
+        <v>0.2134419786637162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2227365672588348</v>
+        <v>0.6261419653892517</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1223670244216919</v>
+        <v>0.770444929599762</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7000502943992615</v>
+        <v>0.5104501247406006</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3942179381847382</v>
+        <v>0.6480938196182251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_8</t>
+          <t>model_3_6_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.799769387993106</v>
+        <v>0.4354447942072245</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7613921100648964</v>
+        <v>0.1540196448654777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7105595512677068</v>
+        <v>0.005864104001596759</v>
       </c>
       <c r="E18" t="n">
-        <v>0.72066260938778</v>
+        <v>0.2004526074830838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2215962707996368</v>
+        <v>0.6247963309288025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1239488422870636</v>
+        <v>0.7560139298439026</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6889749765396118</v>
+        <v>0.54942786693573</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3898434340953827</v>
+        <v>0.6587966680526733</v>
       </c>
     </row>
     <row r="19">
@@ -1009,214 +1009,214 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8030414648335542</v>
+        <v>0.4365649007455983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7638835723737426</v>
+        <v>0.139257376302887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7221061932902624</v>
+        <v>0.0528218906839184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.73042139387208</v>
+        <v>0.2067979641459706</v>
       </c>
       <c r="F19" t="n">
-        <v>0.217975065112114</v>
+        <v>0.6235566139221191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1226546093821526</v>
+        <v>0.7692062854766846</v>
       </c>
       <c r="H19" t="n">
-        <v>0.661489725112915</v>
+        <v>0.5234757661819458</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3762241005897522</v>
+        <v>0.6535682678222656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_6</t>
+          <t>model_3_6_8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8056294156618573</v>
+        <v>0.4366637409533113</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7667112862285578</v>
+        <v>0.1456140689688583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7305102220943025</v>
+        <v>0.04211529083524534</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7377240766843187</v>
+        <v>0.2070710652526173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2151109427213669</v>
+        <v>0.6234472393989563</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1211856976151466</v>
+        <v>0.763525664806366</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6414850354194641</v>
+        <v>0.5293929576873779</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3660324513912201</v>
+        <v>0.6533432602882385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_0</t>
+          <t>model_3_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8057603032262389</v>
+        <v>0.4382588698781968</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7849598057505621</v>
+        <v>0.1786569187780632</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7701330637675066</v>
+        <v>0.04889021098287472</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7731232778084101</v>
+        <v>0.2281797193118984</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2149660885334015</v>
+        <v>0.6216818690299988</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1117062196135521</v>
+        <v>0.7339967489242554</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5471680760383606</v>
+        <v>0.5256486535072327</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3166292905807495</v>
+        <v>0.6359505653381348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_5</t>
+          <t>model_3_6_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.806374422961925</v>
+        <v>0.4389482071799513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7694593854416327</v>
+        <v>0.1409397237633024</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7329399747516835</v>
+        <v>0.1610666648279447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7402157713622682</v>
+        <v>0.2419306790413518</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2142864614725113</v>
+        <v>0.6209190487861633</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1197581589221954</v>
+        <v>0.7677028775215149</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6357013583183289</v>
+        <v>0.4636522531509399</v>
       </c>
       <c r="I22" t="n">
-        <v>0.362555056810379</v>
+        <v>0.624620258808136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_3</t>
+          <t>model_3_6_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8069455108961548</v>
+        <v>0.4394307493511261</v>
       </c>
       <c r="C23" t="n">
-        <v>0.767699211874507</v>
+        <v>0.1136320513434056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7366643132983289</v>
+        <v>0.2704366687692686</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7428582695074606</v>
+        <v>0.2607748648733945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2136544436216354</v>
+        <v>0.6203849911689758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1206725165247917</v>
+        <v>0.7921064496040344</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6268360614776611</v>
+        <v>0.4032068848609924</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3588671684265137</v>
+        <v>0.6090933680534363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_4</t>
+          <t>model_3_6_6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8069493341551213</v>
+        <v>0.4400703738380892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.769589727553772</v>
+        <v>0.1610709755207625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7355134237204014</v>
+        <v>0.0665626057095523</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7423071239813713</v>
+        <v>0.2236594402645716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2136501967906952</v>
+        <v>0.6196771264076233</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1196904480457306</v>
+        <v>0.7497125267982483</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6295756101608276</v>
+        <v>0.5158816576004028</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3596363663673401</v>
+        <v>0.6396750807762146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_2</t>
+          <t>model_3_6_5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8083776310455634</v>
+        <v>0.4420657517144443</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7894225486259071</v>
+        <v>0.1381179576395907</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7400323468412664</v>
+        <v>0.1448874083812709</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7498423705719093</v>
+        <v>0.2352043293956448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.212069496512413</v>
+        <v>0.6174688339233398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1093879640102386</v>
+        <v>0.7702245712280273</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6188188791275024</v>
+        <v>0.4725940227508545</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3491201400756836</v>
+        <v>0.6301625370979309</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8085441398790852</v>
+        <v>0.4430552000915807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7868895325865471</v>
+        <v>0.1233781379621547</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7460530259401372</v>
+        <v>0.2885435262536972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7541756815461956</v>
+        <v>0.2720852264960085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2118852138519287</v>
+        <v>0.6163737177848816</v>
       </c>
       <c r="G26" t="n">
-        <v>0.110703781247139</v>
+        <v>0.7833969593048096</v>
       </c>
       <c r="H26" t="n">
-        <v>0.604487419128418</v>
+        <v>0.3931997716426849</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3430726230144501</v>
+        <v>0.5997740626335144</v>
       </c>
     </row>
   </sheetData>
